--- a/geralTotal.xlsx
+++ b/geralTotal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\44581098807\Desktop\excel2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D9E272-17A9-4DAA-B05D-F9FAA90A257E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41AD8238-8604-4A19-9498-B2D03B837B50}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <si>
     <t>jan/13</t>
   </si>
@@ -311,9 +311,6 @@
   </si>
   <si>
     <t>fev/21</t>
-  </si>
-  <si>
-    <t>Total Geral</t>
   </si>
 </sst>
 </file>
@@ -694,7 +691,7 @@
   <dimension ref="A1:DD35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -703,599 +700,596 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:108" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3">
+      <c r="B1" s="3">
         <v>41306</v>
       </c>
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="D1" s="5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="W1" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="X1" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y1" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Z1" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AA1" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AB1" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AC1" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AD1" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AE1" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AF1" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG1" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AH1" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AI1" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AJ1" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AK1" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AL1" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AM1" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AN1" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AO1" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AP1" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AQ1" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AR1" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AS1" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AT1" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AU1" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AV1" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AW1" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AX1" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AY1" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AZ1" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="BA1" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="BB1" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BC1" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="BD1" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="BE1" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="BF1" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BG1" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="BH1" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BI1" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="BJ1" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BK1" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BL1" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BM1" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BN1" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="BO1" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="BP1" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="BQ1" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="BR1" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="BS1" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="BT1" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="BU1" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="BV1" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="BW1" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BX1" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="BY1" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="BZ1" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="CA1" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="CB1" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="CC1" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="CD1" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="CE1" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="CF1" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="CG1" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="CH1" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="CI1" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="CJ1" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="CK1" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="CL1" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="CM1" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="CN1" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="CO1" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="CP1" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="CQ1" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="CR1" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="CS1" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="CT1" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="CU1" s="5" t="s">
         <v>96</v>
       </c>
       <c r="DA1" s="1"/>
       <c r="DD1" s="1"/>
     </row>
     <row r="2" spans="1:108" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>97</v>
+      <c r="A2" s="4">
+        <v>527044.36</v>
       </c>
       <c r="B2" s="4">
-        <v>527044.36</v>
+        <v>486900.51</v>
       </c>
       <c r="C2" s="4">
-        <v>486900.51</v>
+        <v>510833.57</v>
       </c>
       <c r="D2" s="4">
-        <v>510833.57</v>
+        <v>521353.3</v>
       </c>
       <c r="E2" s="4">
-        <v>521353.3</v>
+        <v>523811.98</v>
       </c>
       <c r="F2" s="4">
-        <v>523811.98</v>
+        <v>496693.78</v>
       </c>
       <c r="G2" s="4">
-        <v>496693.78</v>
+        <v>528713.36</v>
       </c>
       <c r="H2" s="4">
-        <v>528713.36</v>
+        <v>529519.39</v>
       </c>
       <c r="I2" s="4">
-        <v>529519.39</v>
+        <v>502566.72</v>
       </c>
       <c r="J2" s="4">
-        <v>502566.72</v>
+        <v>546824.06000000006</v>
       </c>
       <c r="K2" s="4">
-        <v>546824.06000000006</v>
+        <v>511474.82</v>
       </c>
       <c r="L2" s="4">
-        <v>511474.82</v>
+        <v>533303.61</v>
       </c>
       <c r="M2" s="4">
-        <v>533303.61</v>
+        <v>514024.01</v>
       </c>
       <c r="N2" s="4">
-        <v>514024.01</v>
+        <v>470061.54599999997</v>
       </c>
       <c r="O2" s="4">
-        <v>470061.54599999997</v>
+        <v>500234.13</v>
       </c>
       <c r="P2" s="4">
-        <v>500234.13</v>
+        <v>486075.82</v>
       </c>
       <c r="Q2" s="4">
-        <v>486075.82</v>
+        <v>497144.93</v>
       </c>
       <c r="R2" s="4">
-        <v>497144.93</v>
+        <v>451357.46</v>
       </c>
       <c r="S2" s="4">
-        <v>451357.46</v>
+        <v>490529.05</v>
       </c>
       <c r="T2" s="4">
-        <v>490529.05</v>
+        <v>485016.99</v>
       </c>
       <c r="U2" s="4">
-        <v>485016.99</v>
+        <v>505757.06</v>
       </c>
       <c r="V2" s="4">
-        <v>505757.06</v>
+        <v>502459.54</v>
       </c>
       <c r="W2" s="4">
-        <v>502459.54</v>
+        <v>463687.75</v>
       </c>
       <c r="X2" s="4">
-        <v>463687.75</v>
+        <v>521832.91</v>
       </c>
       <c r="Y2" s="4">
-        <v>521832.91</v>
+        <v>497933.44</v>
       </c>
       <c r="Z2" s="4">
-        <v>497933.44</v>
+        <v>446068.57</v>
       </c>
       <c r="AA2" s="4">
-        <v>446068.57</v>
+        <v>511432.27</v>
       </c>
       <c r="AB2" s="4">
-        <v>511432.27</v>
+        <v>472188.08</v>
       </c>
       <c r="AC2" s="4">
-        <v>472188.08</v>
+        <v>466261.26</v>
       </c>
       <c r="AD2" s="4">
-        <v>466261.26</v>
+        <v>467665.36</v>
       </c>
       <c r="AE2" s="4">
-        <v>467665.36</v>
+        <v>469425.38</v>
       </c>
       <c r="AF2" s="4">
-        <v>469425.38</v>
+        <v>467482.48</v>
       </c>
       <c r="AG2" s="4">
-        <v>467482.48</v>
+        <v>467580.68</v>
       </c>
       <c r="AH2" s="4">
-        <v>467580.68</v>
+        <v>487542.6</v>
       </c>
       <c r="AI2" s="4">
-        <v>487542.6</v>
+        <v>474840.68</v>
       </c>
       <c r="AJ2" s="4">
-        <v>474840.68</v>
+        <v>522303.56</v>
       </c>
       <c r="AK2" s="4">
-        <v>522303.56</v>
+        <v>463884.79999999999</v>
       </c>
       <c r="AL2" s="4">
-        <v>463884.79999999999</v>
+        <v>471502.18</v>
       </c>
       <c r="AM2" s="4">
-        <v>471502.18</v>
+        <v>494948.04</v>
       </c>
       <c r="AN2" s="4">
-        <v>494948.04</v>
+        <v>462757.39</v>
       </c>
       <c r="AO2" s="4">
-        <v>462757.39</v>
+        <v>449509.7</v>
       </c>
       <c r="AP2" s="4">
-        <v>449509.7</v>
+        <v>451108.13</v>
       </c>
       <c r="AQ2" s="4">
-        <v>451108.13</v>
+        <v>432143.07</v>
       </c>
       <c r="AR2" s="4">
-        <v>432143.07</v>
+        <v>461709.39</v>
       </c>
       <c r="AS2" s="4">
-        <v>461709.39</v>
+        <v>440561.52</v>
       </c>
       <c r="AT2" s="4">
-        <v>440561.52</v>
+        <v>437893.52</v>
       </c>
       <c r="AU2" s="4">
-        <v>437893.52</v>
+        <v>396496.69</v>
       </c>
       <c r="AV2" s="4">
-        <v>396496.69</v>
+        <v>490428.44</v>
       </c>
       <c r="AW2" s="4">
-        <v>490428.44</v>
+        <v>461748.59</v>
       </c>
       <c r="AX2" s="4">
-        <v>461748.59</v>
+        <v>422316.02</v>
       </c>
       <c r="AY2" s="4">
-        <v>422316.02</v>
+        <v>476620.56</v>
       </c>
       <c r="AZ2" s="4">
-        <v>476620.56</v>
+        <v>419948.87</v>
       </c>
       <c r="BA2" s="4">
-        <v>419948.87</v>
+        <v>490020.17</v>
       </c>
       <c r="BB2" s="4">
-        <v>490020.17</v>
+        <v>466242.03</v>
       </c>
       <c r="BC2" s="4">
-        <v>466242.03</v>
+        <v>463516.11</v>
       </c>
       <c r="BD2" s="4">
-        <v>463516.11</v>
+        <v>483359.99</v>
       </c>
       <c r="BE2" s="4">
-        <v>483359.99</v>
+        <v>473040.47</v>
       </c>
       <c r="BF2" s="4">
-        <v>473040.47</v>
+        <v>492872.72</v>
       </c>
       <c r="BG2" s="4">
-        <v>492872.72</v>
+        <v>486718.48</v>
       </c>
       <c r="BH2" s="4">
-        <v>486718.48</v>
+        <v>484160.33</v>
       </c>
       <c r="BI2" s="4">
-        <v>484160.33</v>
+        <v>524597.5</v>
       </c>
       <c r="BJ2" s="4">
-        <v>524597.5</v>
+        <v>486848.89</v>
       </c>
       <c r="BK2" s="4">
-        <v>486848.89</v>
+        <v>534651.55000000005</v>
       </c>
       <c r="BL2" s="4">
-        <v>534651.55000000005</v>
+        <v>500877.62</v>
       </c>
       <c r="BM2" s="4">
-        <v>500877.62</v>
+        <v>497681.95</v>
       </c>
       <c r="BN2" s="4">
-        <v>497681.95</v>
+        <v>486910.69</v>
       </c>
       <c r="BO2" s="4">
-        <v>486910.69</v>
+        <v>495068.21</v>
       </c>
       <c r="BP2" s="4">
-        <v>495068.21</v>
+        <v>511932.41</v>
       </c>
       <c r="BQ2" s="4">
-        <v>511932.41</v>
+        <v>481426.59</v>
       </c>
       <c r="BR2" s="4">
-        <v>481426.59</v>
+        <v>531602.1</v>
       </c>
       <c r="BS2" s="4">
-        <v>531602.1</v>
+        <v>501657.64</v>
       </c>
       <c r="BT2" s="4">
-        <v>501657.64</v>
+        <v>529217.84</v>
       </c>
       <c r="BU2" s="4">
-        <v>529217.84</v>
+        <v>466.71300000000002</v>
       </c>
       <c r="BV2" s="4">
-        <v>466.71300000000002</v>
+        <v>438.84899999999999</v>
       </c>
       <c r="BW2" s="4">
-        <v>438.84899999999999</v>
+        <v>474.52</v>
       </c>
       <c r="BX2" s="4">
-        <v>474.52</v>
+        <v>480.57100000000003</v>
       </c>
       <c r="BY2" s="4">
-        <v>480.57100000000003</v>
+        <v>479.30200000000002</v>
       </c>
       <c r="BZ2" s="4">
-        <v>479.30200000000002</v>
+        <v>433.34199999999998</v>
       </c>
       <c r="CA2" s="4">
-        <v>433.34199999999998</v>
+        <v>469.11599999999999</v>
       </c>
       <c r="CB2" s="4">
-        <v>469.11599999999999</v>
+        <v>468.32499999999999</v>
       </c>
       <c r="CC2" s="4">
-        <v>468.32499999999999</v>
+        <v>459.44099999999997</v>
       </c>
       <c r="CD2" s="4">
-        <v>459.44099999999997</v>
+        <v>484.43700000000001</v>
       </c>
       <c r="CE2" s="4">
-        <v>484.43700000000001</v>
+        <v>467.28800000000001</v>
       </c>
       <c r="CF2" s="4">
-        <v>467.28800000000001</v>
+        <v>507.17700000000002</v>
       </c>
       <c r="CG2" s="4">
-        <v>507.17700000000002</v>
+        <v>484.27600000000001</v>
       </c>
       <c r="CH2" s="4">
-        <v>484.27600000000001</v>
+        <v>460.63499999999999</v>
       </c>
       <c r="CI2" s="4">
-        <v>460.63499999999999</v>
+        <v>498.19499999999999</v>
       </c>
       <c r="CJ2" s="4">
-        <v>498.19499999999999</v>
+        <v>442.34399999999999</v>
       </c>
       <c r="CK2" s="4">
-        <v>442.34399999999999</v>
+        <v>438.95699999999999</v>
       </c>
       <c r="CL2" s="4">
-        <v>438.95699999999999</v>
+        <v>487.20699999999999</v>
       </c>
       <c r="CM2" s="4">
-        <v>487.20699999999999</v>
+        <v>500.79</v>
       </c>
       <c r="CN2" s="4">
-        <v>500.79</v>
+        <v>469.32499999999999</v>
       </c>
       <c r="CO2" s="4">
-        <v>469.32499999999999</v>
+        <v>479.25799999999998</v>
       </c>
       <c r="CP2" s="4">
-        <v>479.25799999999998</v>
+        <v>482.262</v>
       </c>
       <c r="CQ2" s="4">
-        <v>482.262</v>
+        <v>457.69</v>
       </c>
       <c r="CR2" s="4">
-        <v>457.69</v>
+        <v>518.43799999999999</v>
       </c>
       <c r="CS2" s="4">
-        <v>518.43799999999999</v>
+        <v>472.71899999999999</v>
       </c>
       <c r="CT2" s="4">
-        <v>472.71899999999999</v>
-      </c>
-      <c r="CU2" s="4">
         <v>439.80500000000001</v>
       </c>
     </row>

--- a/geralTotal.xlsx
+++ b/geralTotal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\44581098807\Desktop\excel2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41AD8238-8604-4A19-9498-B2D03B837B50}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF7D4A18-1DEC-4768-BEBC-4826A7005FD5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
   <si>
     <t>jan/13</t>
   </si>
@@ -311,6 +311,78 @@
   </si>
   <si>
     <t>fev/21</t>
+  </si>
+  <si>
+    <t>jan/23</t>
+  </si>
+  <si>
+    <t>fev/23</t>
+  </si>
+  <si>
+    <t>mar/23</t>
+  </si>
+  <si>
+    <t>abr/23</t>
+  </si>
+  <si>
+    <t>mai/23</t>
+  </si>
+  <si>
+    <t>jun/23</t>
+  </si>
+  <si>
+    <t>jul/23</t>
+  </si>
+  <si>
+    <t>ago/23</t>
+  </si>
+  <si>
+    <t>set/23</t>
+  </si>
+  <si>
+    <t>out/23</t>
+  </si>
+  <si>
+    <t>nov/23</t>
+  </si>
+  <si>
+    <t>dez/23</t>
+  </si>
+  <si>
+    <t>jan/24</t>
+  </si>
+  <si>
+    <t>fev/24</t>
+  </si>
+  <si>
+    <t>mar/24</t>
+  </si>
+  <si>
+    <t>abr/24</t>
+  </si>
+  <si>
+    <t>mai/24</t>
+  </si>
+  <si>
+    <t>jun/24</t>
+  </si>
+  <si>
+    <t>jul/24</t>
+  </si>
+  <si>
+    <t>ago/24</t>
+  </si>
+  <si>
+    <t>set/24</t>
+  </si>
+  <si>
+    <t>out/24</t>
+  </si>
+  <si>
+    <t>nov/24</t>
+  </si>
+  <si>
+    <t>dez/24</t>
   </si>
 </sst>
 </file>
@@ -373,7 +445,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -386,6 +458,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -688,10 +768,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEB56C50-FF62-4C38-99E2-568A1DC80133}">
-  <dimension ref="A1:DD35"/>
+  <dimension ref="A1:DR35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="CT1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="DG2" sqref="DG2:DR2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -699,7 +779,7 @@
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:122" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -994,10 +1074,80 @@
       <c r="CT1" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="DA1" s="1"/>
-      <c r="DD1" s="1"/>
+      <c r="CU1" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="CV1" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="CW1" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="CX1" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="CY1" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="CZ1" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="DA1" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="DB1" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="DC1" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="DD1" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="DE1" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="DF1" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="DG1" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="DH1" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="DI1" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="DJ1" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="DK1" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="DL1" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="DM1" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="DN1" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="DO1" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="DP1" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="DQ1" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="DR1" s="8" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="2" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:122" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>527044.36</v>
       </c>
@@ -1292,8 +1442,80 @@
       <c r="CT2" s="4">
         <v>439.80500000000001</v>
       </c>
+      <c r="CU2" s="7">
+        <v>295133.44</v>
+      </c>
+      <c r="CV2" s="7">
+        <v>276302.21000000002</v>
+      </c>
+      <c r="CW2" s="7">
+        <v>306021.76000000001</v>
+      </c>
+      <c r="CX2" s="7">
+        <v>266533.19</v>
+      </c>
+      <c r="CY2" s="7">
+        <v>288978.31</v>
+      </c>
+      <c r="CZ2" s="7">
+        <v>273364.94</v>
+      </c>
+      <c r="DA2" s="7">
+        <v>276232.8</v>
+      </c>
+      <c r="DB2" s="7">
+        <v>290545.02</v>
+      </c>
+      <c r="DC2" s="7">
+        <v>281255.24</v>
+      </c>
+      <c r="DD2" s="7">
+        <v>297534.7</v>
+      </c>
+      <c r="DE2" s="7">
+        <v>293825.90000000002</v>
+      </c>
+      <c r="DF2" s="7">
+        <v>307069.36</v>
+      </c>
+      <c r="DG2" s="9">
+        <v>298432.34000000003</v>
+      </c>
+      <c r="DH2" s="9">
+        <v>285234.65000000002</v>
+      </c>
+      <c r="DI2" s="9">
+        <v>295649.57</v>
+      </c>
+      <c r="DJ2" s="9">
+        <v>300254.07</v>
+      </c>
+      <c r="DK2" s="9">
+        <v>291709.08</v>
+      </c>
+      <c r="DL2" s="9">
+        <v>274330.78000000003</v>
+      </c>
+      <c r="DM2" s="9">
+        <v>289948.88</v>
+      </c>
+      <c r="DN2" s="9">
+        <v>285096.02</v>
+      </c>
+      <c r="DO2" s="9">
+        <v>278970.07</v>
+      </c>
+      <c r="DP2" s="9">
+        <v>305784.62</v>
+      </c>
+      <c r="DQ2" s="9">
+        <v>295001.26</v>
+      </c>
+      <c r="DR2" s="9">
+        <v>315267.62</v>
+      </c>
     </row>
-    <row r="6" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:122" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -1307,7 +1529,7 @@
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:122" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -1321,7 +1543,7 @@
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
     </row>
-    <row r="8" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:122" x14ac:dyDescent="0.3">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -1335,7 +1557,7 @@
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
     </row>
-    <row r="9" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:122" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -1349,7 +1571,7 @@
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
     </row>
-    <row r="12" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:122" x14ac:dyDescent="0.3">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -1363,7 +1585,7 @@
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:122" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -1377,7 +1599,7 @@
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
     </row>
-    <row r="14" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:122" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -1391,7 +1613,7 @@
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:122" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -1405,7 +1627,7 @@
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:122" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>

--- a/geralTotal.xlsx
+++ b/geralTotal.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\44581098807\Desktop\excel2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\henri\Downloads\excel2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF7D4A18-1DEC-4768-BEBC-4826A7005FD5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A47D9DA7-9953-48E9-8437-8D5F93F39394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TotalGeral" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
   <si>
     <t>jan/13</t>
   </si>
@@ -383,6 +396,36 @@
   </si>
   <si>
     <t>dez/24</t>
+  </si>
+  <si>
+    <t>mar/21</t>
+  </si>
+  <si>
+    <t>abr/21</t>
+  </si>
+  <si>
+    <t>mai/21</t>
+  </si>
+  <si>
+    <t>jun/21</t>
+  </si>
+  <si>
+    <t>jul/21</t>
+  </si>
+  <si>
+    <t>ago/21</t>
+  </si>
+  <si>
+    <t>set/21</t>
+  </si>
+  <si>
+    <t>out/21</t>
+  </si>
+  <si>
+    <t>nov/21</t>
+  </si>
+  <si>
+    <t>dez/21</t>
   </si>
 </sst>
 </file>
@@ -445,7 +488,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -454,18 +497,6 @@
     <xf numFmtId="17" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -768,754 +799,814 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEB56C50-FF62-4C38-99E2-568A1DC80133}">
-  <dimension ref="A1:DR35"/>
+  <dimension ref="A1:EB35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CT1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="DG2" sqref="DG2:DR2"/>
+    <sheetView tabSelected="1" topLeftCell="CU1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="DQ2" sqref="DQ2:EB2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:122" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3">
         <v>41306</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AB1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AC1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AD1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AE1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AF1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AG1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AH1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="5" t="s">
+      <c r="AI1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="5" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="5" t="s">
+      <c r="AK1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" s="5" t="s">
+      <c r="AL1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" s="5" t="s">
+      <c r="AM1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" s="5" t="s">
+      <c r="AN1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AO1" s="5" t="s">
+      <c r="AO1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AP1" s="5" t="s">
+      <c r="AP1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AQ1" s="5" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AR1" s="5" t="s">
+      <c r="AR1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AS1" s="5" t="s">
+      <c r="AS1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AT1" s="5" t="s">
+      <c r="AT1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AU1" s="5" t="s">
+      <c r="AU1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AV1" s="5" t="s">
+      <c r="AV1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AW1" s="5" t="s">
+      <c r="AW1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AX1" s="5" t="s">
+      <c r="AX1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AY1" s="5" t="s">
+      <c r="AY1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AZ1" s="5" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="BA1" s="5" t="s">
+      <c r="BA1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BB1" s="5" t="s">
+      <c r="BB1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="BC1" s="5" t="s">
+      <c r="BC1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="BD1" s="5" t="s">
+      <c r="BD1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="BE1" s="5" t="s">
+      <c r="BE1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="BF1" s="5" t="s">
+      <c r="BF1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="BG1" s="5" t="s">
+      <c r="BG1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="BH1" s="5" t="s">
+      <c r="BH1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="BI1" s="5" t="s">
+      <c r="BI1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="BJ1" s="5" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BK1" s="5" t="s">
+      <c r="BK1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BL1" s="5" t="s">
+      <c r="BL1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BM1" s="5" t="s">
+      <c r="BM1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="BN1" s="5" t="s">
+      <c r="BN1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="BO1" s="5" t="s">
+      <c r="BO1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="BP1" s="5" t="s">
+      <c r="BP1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="BQ1" s="5" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="BR1" s="5" t="s">
+      <c r="BR1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="BS1" s="5" t="s">
+      <c r="BS1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="BT1" s="5" t="s">
+      <c r="BT1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="BU1" s="5" t="s">
+      <c r="BU1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="BV1" s="5" t="s">
+      <c r="BV1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="BW1" s="5" t="s">
+      <c r="BW1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="BX1" s="5" t="s">
+      <c r="BX1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="BY1" s="5" t="s">
+      <c r="BY1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="BZ1" s="5" t="s">
+      <c r="BZ1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="CA1" s="5" t="s">
+      <c r="CA1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="CB1" s="5" t="s">
+      <c r="CB1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="CC1" s="5" t="s">
+      <c r="CC1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="CD1" s="5" t="s">
+      <c r="CD1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="CE1" s="5" t="s">
+      <c r="CE1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="CF1" s="5" t="s">
+      <c r="CF1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="CG1" s="5" t="s">
+      <c r="CG1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="CH1" s="5" t="s">
+      <c r="CH1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="CI1" s="5" t="s">
+      <c r="CI1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="CJ1" s="5" t="s">
+      <c r="CJ1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="CK1" s="5" t="s">
+      <c r="CK1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="CL1" s="5" t="s">
+      <c r="CL1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="CM1" s="5" t="s">
+      <c r="CM1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="CN1" s="5" t="s">
+      <c r="CN1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="CO1" s="5" t="s">
+      <c r="CO1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="CP1" s="5" t="s">
+      <c r="CP1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="CQ1" s="5" t="s">
+      <c r="CQ1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="CR1" s="5" t="s">
+      <c r="CR1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="CS1" s="5" t="s">
+      <c r="CS1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="CT1" s="5" t="s">
+      <c r="CT1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="CU1" s="6" t="s">
+      <c r="CU1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="DE1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="CV1" s="6" t="s">
+      <c r="DF1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="CW1" s="6" t="s">
+      <c r="DG1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="CX1" s="6" t="s">
+      <c r="DH1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="CY1" s="6" t="s">
+      <c r="DI1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="CZ1" s="6" t="s">
+      <c r="DJ1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="DA1" s="6" t="s">
+      <c r="DK1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="DB1" s="6" t="s">
+      <c r="DL1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="DC1" s="6" t="s">
+      <c r="DM1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="DD1" s="6" t="s">
+      <c r="DN1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="DE1" s="6" t="s">
+      <c r="DO1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="DF1" s="6" t="s">
+      <c r="DP1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="DG1" s="8" t="s">
+      <c r="DQ1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="DH1" s="8" t="s">
+      <c r="DR1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="DI1" s="8" t="s">
+      <c r="DS1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="DJ1" s="8" t="s">
+      <c r="DT1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="DK1" s="8" t="s">
+      <c r="DU1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="DL1" s="8" t="s">
+      <c r="DV1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="DM1" s="8" t="s">
+      <c r="DW1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="DN1" s="8" t="s">
+      <c r="DX1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="DO1" s="8" t="s">
+      <c r="DY1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="DP1" s="8" t="s">
+      <c r="DZ1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="DQ1" s="8" t="s">
+      <c r="EA1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="DR1" s="8" t="s">
+      <c r="EB1" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:122" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
-        <v>527044.36</v>
-      </c>
-      <c r="B2" s="4">
-        <v>486900.51</v>
-      </c>
-      <c r="C2" s="4">
-        <v>510833.57</v>
-      </c>
-      <c r="D2" s="4">
-        <v>521353.3</v>
-      </c>
-      <c r="E2" s="4">
-        <v>523811.98</v>
-      </c>
-      <c r="F2" s="4">
-        <v>496693.78</v>
-      </c>
-      <c r="G2" s="4">
-        <v>528713.36</v>
-      </c>
-      <c r="H2" s="4">
-        <v>529519.39</v>
-      </c>
-      <c r="I2" s="4">
-        <v>502566.72</v>
-      </c>
-      <c r="J2" s="4">
-        <v>546824.06000000006</v>
-      </c>
-      <c r="K2" s="4">
-        <v>511474.82</v>
-      </c>
-      <c r="L2" s="4">
-        <v>533303.61</v>
-      </c>
-      <c r="M2" s="4">
-        <v>514024.01</v>
-      </c>
-      <c r="N2" s="4">
+    <row r="2" spans="1:132" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>329811.17</v>
+      </c>
+      <c r="B2">
+        <v>306900.44</v>
+      </c>
+      <c r="C2">
+        <v>319322.64</v>
+      </c>
+      <c r="D2">
+        <v>323370.88</v>
+      </c>
+      <c r="E2">
+        <v>311543.84000000003</v>
+      </c>
+      <c r="F2">
+        <v>297548.84999999998</v>
+      </c>
+      <c r="G2">
+        <v>317327.32</v>
+      </c>
+      <c r="H2">
+        <v>315676.64</v>
+      </c>
+      <c r="I2">
+        <v>305483.65000000002</v>
+      </c>
+      <c r="J2">
+        <v>331783.32</v>
+      </c>
+      <c r="K2">
+        <v>322859.19</v>
+      </c>
+      <c r="L2">
+        <v>349827.25</v>
+      </c>
+      <c r="M2">
+        <v>514024.01000000007</v>
+      </c>
+      <c r="N2">
         <v>470061.54599999997</v>
       </c>
-      <c r="O2" s="4">
+      <c r="O2">
         <v>500234.13</v>
       </c>
-      <c r="P2" s="4">
-        <v>486075.82</v>
-      </c>
-      <c r="Q2" s="4">
+      <c r="P2">
+        <v>486075.82000000012</v>
+      </c>
+      <c r="Q2">
         <v>497144.93</v>
       </c>
-      <c r="R2" s="4">
-        <v>451357.46</v>
-      </c>
-      <c r="S2" s="4">
+      <c r="R2">
+        <v>451357.45999999996</v>
+      </c>
+      <c r="S2">
         <v>490529.05</v>
       </c>
-      <c r="T2" s="4">
-        <v>485016.99</v>
-      </c>
-      <c r="U2" s="4">
-        <v>505757.06</v>
-      </c>
-      <c r="V2" s="4">
-        <v>502459.54</v>
-      </c>
-      <c r="W2" s="4">
-        <v>463687.75</v>
-      </c>
-      <c r="X2" s="4">
-        <v>521832.91</v>
-      </c>
-      <c r="Y2" s="4">
+      <c r="T2">
+        <v>485016.99000000005</v>
+      </c>
+      <c r="U2">
+        <v>505757.06000000006</v>
+      </c>
+      <c r="V2">
+        <v>502459.54000000004</v>
+      </c>
+      <c r="W2">
+        <v>463687.75000000006</v>
+      </c>
+      <c r="X2">
+        <v>521832.91000000003</v>
+      </c>
+      <c r="Y2">
         <v>497933.44</v>
       </c>
-      <c r="Z2" s="4">
-        <v>446068.57</v>
-      </c>
-      <c r="AA2" s="4">
-        <v>511432.27</v>
-      </c>
-      <c r="AB2" s="4">
-        <v>472188.08</v>
-      </c>
-      <c r="AC2" s="4">
-        <v>466261.26</v>
-      </c>
-      <c r="AD2" s="4">
-        <v>467665.36</v>
-      </c>
-      <c r="AE2" s="4">
-        <v>469425.38</v>
-      </c>
-      <c r="AF2" s="4">
-        <v>467482.48</v>
-      </c>
-      <c r="AG2" s="4">
-        <v>467580.68</v>
-      </c>
-      <c r="AH2" s="4">
-        <v>487542.6</v>
-      </c>
-      <c r="AI2" s="4">
+      <c r="Z2">
+        <v>446068.56999999995</v>
+      </c>
+      <c r="AA2">
+        <v>511432.2699999999</v>
+      </c>
+      <c r="AB2">
+        <v>472179.66999999993</v>
+      </c>
+      <c r="AC2">
+        <v>466261.26000000013</v>
+      </c>
+      <c r="AD2">
+        <v>467665.36000000004</v>
+      </c>
+      <c r="AE2">
+        <v>469425.37999999995</v>
+      </c>
+      <c r="AF2">
+        <v>467482.48000000004</v>
+      </c>
+      <c r="AG2">
+        <v>467580.68000000011</v>
+      </c>
+      <c r="AH2">
+        <v>487542.60000000009</v>
+      </c>
+      <c r="AI2">
         <v>474840.68</v>
       </c>
-      <c r="AJ2" s="4">
-        <v>522303.56</v>
-      </c>
-      <c r="AK2" s="4">
-        <v>463884.79999999999</v>
-      </c>
-      <c r="AL2" s="4">
-        <v>471502.18</v>
-      </c>
-      <c r="AM2" s="4">
-        <v>494948.04</v>
-      </c>
-      <c r="AN2" s="4">
-        <v>462757.39</v>
-      </c>
-      <c r="AO2" s="4">
-        <v>449509.7</v>
-      </c>
-      <c r="AP2" s="4">
-        <v>451108.13</v>
-      </c>
-      <c r="AQ2" s="4">
+      <c r="AJ2">
+        <v>522303.56000000011</v>
+      </c>
+      <c r="AK2">
+        <v>463884.79999999993</v>
+      </c>
+      <c r="AL2">
+        <v>471502.18000000005</v>
+      </c>
+      <c r="AM2">
+        <v>494948.03999999992</v>
+      </c>
+      <c r="AN2">
+        <v>462757.38999999996</v>
+      </c>
+      <c r="AO2">
+        <v>449506.69999999995</v>
+      </c>
+      <c r="AP2">
+        <v>451106.08000000007</v>
+      </c>
+      <c r="AQ2">
         <v>432143.07</v>
       </c>
-      <c r="AR2" s="4">
-        <v>461709.39</v>
-      </c>
-      <c r="AS2" s="4">
-        <v>440561.52</v>
-      </c>
-      <c r="AT2" s="4">
-        <v>437893.52</v>
-      </c>
-      <c r="AU2" s="4">
-        <v>396496.69</v>
-      </c>
-      <c r="AV2" s="4">
+      <c r="AR2">
+        <v>461709.3899999999</v>
+      </c>
+      <c r="AS2">
+        <v>440558.56</v>
+      </c>
+      <c r="AT2">
+        <v>437893.51999999996</v>
+      </c>
+      <c r="AU2">
+        <v>396496.69000000006</v>
+      </c>
+      <c r="AV2">
         <v>490428.44</v>
       </c>
-      <c r="AW2" s="4">
+      <c r="AW2">
         <v>461748.59</v>
       </c>
-      <c r="AX2" s="4">
+      <c r="AX2">
         <v>422316.02</v>
       </c>
-      <c r="AY2" s="4">
-        <v>476620.56</v>
-      </c>
-      <c r="AZ2" s="4">
+      <c r="AY2">
+        <v>476620.55999999988</v>
+      </c>
+      <c r="AZ2">
         <v>419948.87</v>
       </c>
-      <c r="BA2" s="4">
+      <c r="BA2">
         <v>490020.17</v>
       </c>
-      <c r="BB2" s="4">
-        <v>466242.03</v>
-      </c>
-      <c r="BC2" s="4">
-        <v>463516.11</v>
-      </c>
-      <c r="BD2" s="4">
-        <v>483359.99</v>
-      </c>
-      <c r="BE2" s="4">
-        <v>473040.47</v>
-      </c>
-      <c r="BF2" s="4">
-        <v>492872.72</v>
-      </c>
-      <c r="BG2" s="4">
+      <c r="BB2">
+        <v>466242.02999999997</v>
+      </c>
+      <c r="BC2">
+        <v>463516.11000000004</v>
+      </c>
+      <c r="BD2">
+        <v>483359.99000000011</v>
+      </c>
+      <c r="BE2">
+        <v>473040.46999999991</v>
+      </c>
+      <c r="BF2">
+        <v>492872.72000000003</v>
+      </c>
+      <c r="BG2">
         <v>486718.48</v>
       </c>
-      <c r="BH2" s="4">
+      <c r="BH2">
         <v>484160.33</v>
       </c>
-      <c r="BI2" s="4">
-        <v>524597.5</v>
-      </c>
-      <c r="BJ2" s="4">
-        <v>486848.89</v>
-      </c>
-      <c r="BK2" s="4">
-        <v>534651.55000000005</v>
-      </c>
-      <c r="BL2" s="4">
-        <v>500877.62</v>
-      </c>
-      <c r="BM2" s="4">
-        <v>497681.95</v>
-      </c>
-      <c r="BN2" s="4">
-        <v>486910.69</v>
-      </c>
-      <c r="BO2" s="4">
-        <v>495068.21</v>
-      </c>
-      <c r="BP2" s="4">
-        <v>511932.41</v>
-      </c>
-      <c r="BQ2" s="4">
-        <v>481426.59</v>
-      </c>
-      <c r="BR2" s="4">
-        <v>531602.1</v>
-      </c>
-      <c r="BS2" s="4">
-        <v>501657.64</v>
-      </c>
-      <c r="BT2" s="4">
-        <v>529217.84</v>
-      </c>
-      <c r="BU2" s="4">
-        <v>466.71300000000002</v>
-      </c>
-      <c r="BV2" s="4">
-        <v>438.84899999999999</v>
-      </c>
-      <c r="BW2" s="4">
-        <v>474.52</v>
-      </c>
-      <c r="BX2" s="4">
-        <v>480.57100000000003</v>
-      </c>
-      <c r="BY2" s="4">
-        <v>479.30200000000002</v>
-      </c>
-      <c r="BZ2" s="4">
-        <v>433.34199999999998</v>
-      </c>
-      <c r="CA2" s="4">
-        <v>469.11599999999999</v>
-      </c>
-      <c r="CB2" s="4">
-        <v>468.32499999999999</v>
-      </c>
-      <c r="CC2" s="4">
-        <v>459.44099999999997</v>
-      </c>
-      <c r="CD2" s="4">
-        <v>484.43700000000001</v>
-      </c>
-      <c r="CE2" s="4">
-        <v>467.28800000000001</v>
-      </c>
-      <c r="CF2" s="4">
-        <v>507.17700000000002</v>
-      </c>
-      <c r="CG2" s="4">
-        <v>484.27600000000001</v>
-      </c>
-      <c r="CH2" s="4">
-        <v>460.63499999999999</v>
-      </c>
-      <c r="CI2" s="4">
-        <v>498.19499999999999</v>
-      </c>
-      <c r="CJ2" s="4">
-        <v>442.34399999999999</v>
-      </c>
-      <c r="CK2" s="4">
-        <v>438.95699999999999</v>
-      </c>
-      <c r="CL2" s="4">
-        <v>487.20699999999999</v>
-      </c>
-      <c r="CM2" s="4">
-        <v>500.79</v>
-      </c>
-      <c r="CN2" s="4">
-        <v>469.32499999999999</v>
-      </c>
-      <c r="CO2" s="4">
-        <v>479.25799999999998</v>
-      </c>
-      <c r="CP2" s="4">
-        <v>482.262</v>
-      </c>
-      <c r="CQ2" s="4">
-        <v>457.69</v>
-      </c>
-      <c r="CR2" s="4">
-        <v>518.43799999999999</v>
-      </c>
-      <c r="CS2" s="4">
-        <v>472.71899999999999</v>
-      </c>
-      <c r="CT2" s="4">
-        <v>439.80500000000001</v>
-      </c>
-      <c r="CU2" s="7">
+      <c r="BI2">
+        <v>531660.83000000007</v>
+      </c>
+      <c r="BJ2">
+        <v>450555.30000000005</v>
+      </c>
+      <c r="BK2">
+        <v>498905.58</v>
+      </c>
+      <c r="BL2">
+        <v>464256.82</v>
+      </c>
+      <c r="BM2">
+        <v>461279.81999999995</v>
+      </c>
+      <c r="BN2">
+        <v>450275.99000000005</v>
+      </c>
+      <c r="BO2">
+        <v>458308.3400000002</v>
+      </c>
+      <c r="BP2">
+        <v>475462.79</v>
+      </c>
+      <c r="BQ2">
+        <v>444932</v>
+      </c>
+      <c r="BR2">
+        <v>494965.63</v>
+      </c>
+      <c r="BS2">
+        <v>464514.25000000012</v>
+      </c>
+      <c r="BT2">
+        <v>493192.79</v>
+      </c>
+      <c r="BU2">
+        <v>466711</v>
+      </c>
+      <c r="BV2">
+        <v>438849</v>
+      </c>
+      <c r="BW2">
+        <v>474522</v>
+      </c>
+      <c r="BX2">
+        <v>480571</v>
+      </c>
+      <c r="BY2">
+        <v>479302.1</v>
+      </c>
+      <c r="BZ2">
+        <v>433341</v>
+      </c>
+      <c r="CA2">
+        <v>469115</v>
+      </c>
+      <c r="CB2">
+        <v>468324</v>
+      </c>
+      <c r="CC2">
+        <v>459442</v>
+      </c>
+      <c r="CD2">
+        <v>484436</v>
+      </c>
+      <c r="CE2">
+        <v>467289</v>
+      </c>
+      <c r="CF2">
+        <v>507179</v>
+      </c>
+      <c r="CG2">
+        <v>480829</v>
+      </c>
+      <c r="CH2">
+        <v>457655</v>
+      </c>
+      <c r="CI2">
+        <v>501886</v>
+      </c>
+      <c r="CJ2">
+        <v>430051</v>
+      </c>
+      <c r="CK2">
+        <v>451718</v>
+      </c>
+      <c r="CL2">
+        <v>482843</v>
+      </c>
+      <c r="CM2">
+        <v>494875</v>
+      </c>
+      <c r="CN2">
+        <v>479847</v>
+      </c>
+      <c r="CO2">
+        <v>483861</v>
+      </c>
+      <c r="CP2">
+        <v>467337</v>
+      </c>
+      <c r="CQ2">
+        <v>482838</v>
+      </c>
+      <c r="CR2">
+        <v>509187</v>
+      </c>
+      <c r="CS2">
+        <v>308771.34000000003</v>
+      </c>
+      <c r="CT2">
+        <v>278865.96000000002</v>
+      </c>
+      <c r="CU2">
+        <v>314020.61</v>
+      </c>
+      <c r="CV2">
+        <v>274942.26</v>
+      </c>
+      <c r="CW2">
+        <v>277720.63</v>
+      </c>
+      <c r="CX2">
+        <v>276873.3</v>
+      </c>
+      <c r="CY2">
+        <v>275104.11</v>
+      </c>
+      <c r="CZ2">
+        <v>281445.44</v>
+      </c>
+      <c r="DA2">
+        <v>273401.23</v>
+      </c>
+      <c r="DB2">
+        <v>275099.12</v>
+      </c>
+      <c r="DC2">
+        <v>285569.11</v>
+      </c>
+      <c r="DD2">
+        <v>299566.33</v>
+      </c>
+      <c r="DE2">
         <v>295133.44</v>
       </c>
-      <c r="CV2" s="7">
+      <c r="DF2">
         <v>276302.21000000002</v>
       </c>
-      <c r="CW2" s="7">
+      <c r="DG2">
         <v>306021.76000000001</v>
       </c>
-      <c r="CX2" s="7">
+      <c r="DH2">
         <v>266533.19</v>
       </c>
-      <c r="CY2" s="7">
+      <c r="DI2">
         <v>288978.31</v>
       </c>
-      <c r="CZ2" s="7">
+      <c r="DJ2">
         <v>273364.94</v>
       </c>
-      <c r="DA2" s="7">
+      <c r="DK2">
         <v>276232.8</v>
       </c>
-      <c r="DB2" s="7">
+      <c r="DL2">
         <v>290545.02</v>
       </c>
-      <c r="DC2" s="7">
+      <c r="DM2">
         <v>281255.24</v>
       </c>
-      <c r="DD2" s="7">
+      <c r="DN2">
         <v>297534.7</v>
       </c>
-      <c r="DE2" s="7">
+      <c r="DO2">
         <v>293825.90000000002</v>
       </c>
-      <c r="DF2" s="7">
+      <c r="DP2">
         <v>307069.36</v>
       </c>
-      <c r="DG2" s="9">
+      <c r="DQ2">
         <v>298432.34000000003</v>
       </c>
-      <c r="DH2" s="9">
+      <c r="DR2">
         <v>285234.65000000002</v>
       </c>
-      <c r="DI2" s="9">
+      <c r="DS2">
         <v>295649.57</v>
       </c>
-      <c r="DJ2" s="9">
+      <c r="DT2">
         <v>300254.07</v>
       </c>
-      <c r="DK2" s="9">
+      <c r="DU2">
         <v>291709.08</v>
       </c>
-      <c r="DL2" s="9">
+      <c r="DV2">
         <v>274330.78000000003</v>
       </c>
-      <c r="DM2" s="9">
+      <c r="DW2">
         <v>289948.88</v>
       </c>
-      <c r="DN2" s="9">
+      <c r="DX2">
         <v>285096.02</v>
       </c>
-      <c r="DO2" s="9">
+      <c r="DY2">
         <v>278970.07</v>
       </c>
-      <c r="DP2" s="9">
+      <c r="DZ2">
         <v>305784.62</v>
       </c>
-      <c r="DQ2" s="9">
+      <c r="EA2">
         <v>295001.26</v>
       </c>
-      <c r="DR2" s="9">
+      <c r="EB2">
         <v>315267.62</v>
       </c>
     </row>
-    <row r="6" spans="1:122" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:132" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -1529,7 +1620,7 @@
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="1:122" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:132" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -1543,7 +1634,7 @@
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
     </row>
-    <row r="8" spans="1:122" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:132" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -1557,7 +1648,7 @@
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
     </row>
-    <row r="9" spans="1:122" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:132" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -1571,7 +1662,7 @@
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
     </row>
-    <row r="12" spans="1:122" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:132" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -1585,7 +1676,7 @@
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="1:122" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:132" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -1599,7 +1690,7 @@
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
     </row>
-    <row r="14" spans="1:122" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:132" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -1613,7 +1704,7 @@
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="1:122" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:132" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -1627,7 +1718,7 @@
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="1:122" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:132" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -1641,7 +1732,7 @@
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1655,7 +1746,7 @@
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -1669,7 +1760,7 @@
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -1683,7 +1774,7 @@
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -1697,7 +1788,7 @@
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -1711,7 +1802,7 @@
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>

--- a/geralTotal.xlsx
+++ b/geralTotal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\henri\Downloads\excel2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A47D9DA7-9953-48E9-8437-8D5F93F39394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE0BC2E-86B0-42AE-8E16-4B88AE9D799A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -801,8 +801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEB56C50-FF62-4C38-99E2-568A1DC80133}">
   <dimension ref="A1:EB35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CU1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="DQ2" sqref="DQ2:EB2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1210,40 +1210,40 @@
     </row>
     <row r="2" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>329811.17</v>
+        <v>527044.3600000001</v>
       </c>
       <c r="B2">
-        <v>306900.44</v>
+        <v>486900.51000000013</v>
       </c>
       <c r="C2">
-        <v>319322.64</v>
+        <v>510833.56999999995</v>
       </c>
       <c r="D2">
-        <v>323370.88</v>
+        <v>521353.3</v>
       </c>
       <c r="E2">
-        <v>311543.84000000003</v>
+        <v>523811.98000000016</v>
       </c>
       <c r="F2">
-        <v>297548.84999999998</v>
+        <v>496693.77999999997</v>
       </c>
       <c r="G2">
-        <v>317327.32</v>
+        <v>528751.06999999995</v>
       </c>
       <c r="H2">
-        <v>315676.64</v>
+        <v>529504.9700000002</v>
       </c>
       <c r="I2">
-        <v>305483.65000000002</v>
+        <v>502552.81000000006</v>
       </c>
       <c r="J2">
-        <v>331783.32</v>
+        <v>546822.72999999986</v>
       </c>
       <c r="K2">
-        <v>322859.19</v>
+        <v>511474</v>
       </c>
       <c r="L2">
-        <v>349827.25</v>
+        <v>533296.38</v>
       </c>
       <c r="M2">
         <v>514024.01000000007</v>
